--- a/Introduction to Algorithms/Syllabus.xlsx
+++ b/Introduction to Algorithms/Syllabus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\Introduction to Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCDA486-5EFC-4F0F-BAB9-86B6D62F62FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A2AFBE-87D8-4546-856B-FCC1613B75AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.18-4.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +104,18 @@
   </si>
   <si>
     <t>7.13-7.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,13 +457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="A1:F17"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,7 +533,7 @@
         <v>44277</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E17" si="1">D3+6</f>
+        <f t="shared" ref="E3:E18" si="1">D3+6</f>
         <v>44283</v>
       </c>
       <c r="F3" t="s">
@@ -551,7 +559,7 @@
         <v>44290</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -595,7 +603,7 @@
         <v>44304</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -617,7 +625,7 @@
         <v>44311</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -661,7 +669,7 @@
         <v>44325</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -683,7 +691,7 @@
         <v>44332</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -705,7 +713,7 @@
         <v>44339</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -727,7 +735,7 @@
         <v>44346</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,7 +757,7 @@
         <v>44353</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -767,11 +775,11 @@
         <v>44354</v>
       </c>
       <c r="E14" s="1">
-        <f>D14+6</f>
+        <f t="shared" si="1"/>
         <v>44360</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -785,7 +793,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D17" si="2">B15+(C15-1)*7-WEEKDAY(B15,2)+1</f>
+        <f t="shared" ref="D15:D18" si="2">B15+(C15-1)*7-WEEKDAY(B15,2)+1</f>
         <v>44361</v>
       </c>
       <c r="E15" s="1">
@@ -793,7 +801,7 @@
         <v>44367</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -837,7 +845,29 @@
         <v>44381</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>44382</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>44388</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Introduction to Algorithms/Syllabus.xlsx
+++ b/Introduction to Algorithms/Syllabus.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Notes\Introduction to Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/Introduction to Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A2AFBE-87D8-4546-856B-FCC1613B75AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D41DE75-88FD-DE47-8A67-85E9B60C5854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,19 +130,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -145,7 +151,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,12 +180,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,23 +463,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -647,7 +653,7 @@
         <v>44318</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -669,7 +675,7 @@
         <v>44325</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -691,7 +697,7 @@
         <v>44332</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -713,7 +719,7 @@
         <v>44339</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -735,7 +741,7 @@
         <v>44346</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -757,7 +763,7 @@
         <v>44353</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -779,7 +785,7 @@
         <v>44360</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -793,7 +799,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:D18" si="2">B15+(C15-1)*7-WEEKDAY(B15,2)+1</f>
+        <f t="shared" ref="D15:D20" si="2">B15+(C15-1)*7-WEEKDAY(B15,2)+1</f>
         <v>44361</v>
       </c>
       <c r="E15" s="1">
@@ -801,7 +807,7 @@
         <v>44367</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -823,7 +829,7 @@
         <v>44374</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -845,7 +851,7 @@
         <v>44381</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -867,6 +873,72 @@
         <v>44388</v>
       </c>
       <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>44389</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:E21" si="3">D19+6</f>
+        <v>44395</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>44396</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>44402</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
+        <f>B21+(C21-1)*7-WEEKDAY(B21,2)+1</f>
+        <v>44403</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>44409</v>
+      </c>
+      <c r="F21" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Introduction to Algorithms/Syllabus.xlsx
+++ b/Introduction to Algorithms/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/Introduction to Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D41DE75-88FD-DE47-8A67-85E9B60C5854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F6B34-C440-4E43-8274-DB5C463EBA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,56 +73,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4.18-4.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6-5.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.6-6.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1-7.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.7-7.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review3</t>
+  </si>
+  <si>
+    <t>8.17-8.22</t>
+  </si>
+  <si>
+    <t>8.11-8.16</t>
+  </si>
+  <si>
+    <t>8.6-8.10</t>
+  </si>
+  <si>
     <t>8.1-8.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.6-8.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.18-4.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.6-5.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.6-6.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.17-8.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.11-8.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.1-7.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review2</t>
+  </si>
+  <si>
+    <t>7.13-7.18</t>
   </si>
   <si>
     <t>7.7-7.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.13-7.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -463,13 +459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,7 +561,7 @@
         <v>44290</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -609,7 +605,7 @@
         <v>44304</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -631,7 +627,7 @@
         <v>44311</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -653,7 +649,7 @@
         <v>44318</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -675,7 +671,7 @@
         <v>44325</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -697,7 +693,7 @@
         <v>44332</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -741,7 +737,7 @@
         <v>44346</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -763,7 +759,7 @@
         <v>44353</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -785,7 +781,7 @@
         <v>44360</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,7 +803,7 @@
         <v>44367</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -829,7 +825,7 @@
         <v>44374</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -851,7 +847,7 @@
         <v>44381</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,7 +869,7 @@
         <v>44388</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -891,11 +887,11 @@
         <v>44389</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E21" si="3">D19+6</f>
+        <f t="shared" ref="E19:E23" si="3">D19+6</f>
         <v>44395</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -917,7 +913,7 @@
         <v>44402</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -939,7 +935,51 @@
         <v>44409</v>
       </c>
       <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C22">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:D23" si="4">B22+(C22-1)*7-WEEKDAY(B22,2)+1</f>
+        <v>44410</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>44416</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C23">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="4"/>
+        <v>44417</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>44423</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Introduction to Algorithms/Syllabus.xlsx
+++ b/Introduction to Algorithms/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/Introduction to Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33F6B34-C440-4E43-8274-DB5C463EBA38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AC732-DC3B-9E4A-87EC-779BA529E187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,13 +459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -803,7 +803,7 @@
         <v>44367</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
         <v>44374</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>44381</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>44388</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -887,11 +887,11 @@
         <v>44389</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E23" si="3">D19+6</f>
+        <f t="shared" ref="E19:E24" si="3">D19+6</f>
         <v>44395</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>44402</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>44409</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>32</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D23" si="4">B22+(C22-1)*7-WEEKDAY(B22,2)+1</f>
+        <f t="shared" ref="D22:D24" si="4">B22+(C22-1)*7-WEEKDAY(B22,2)+1</f>
         <v>44410</v>
       </c>
       <c r="E22" s="1">
@@ -957,7 +957,7 @@
         <v>44416</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,6 +979,28 @@
         <v>44423</v>
       </c>
       <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="4"/>
+        <v>44424</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>44430</v>
+      </c>
+      <c r="F24" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Introduction to Algorithms/Syllabus.xlsx
+++ b/Introduction to Algorithms/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/Introduction to Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AC732-DC3B-9E4A-87EC-779BA529E187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BACAC5-5EBA-3D49-8407-0BEB33D72245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,13 +459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15:F24"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -825,7 +825,7 @@
         <v>44374</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>44381</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>44388</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -887,11 +887,11 @@
         <v>44389</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E24" si="3">D19+6</f>
+        <f t="shared" ref="E19:E25" si="3">D19+6</f>
         <v>44395</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>44402</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>44409</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>44416</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>44423</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1001,6 +1001,28 @@
         <v>44430</v>
       </c>
       <c r="F24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C25">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1">
+        <f>B25+(C25-1)*7-WEEKDAY(B25,2)+1</f>
+        <v>44431</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>44437</v>
+      </c>
+      <c r="F25" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Introduction to Algorithms/Syllabus.xlsx
+++ b/Introduction to Algorithms/Syllabus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/Introduction to Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BACAC5-5EBA-3D49-8407-0BEB33D72245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C14CC-E7F6-AE46-88AD-C990EFEE05B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,13 +459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -887,7 +887,7 @@
         <v>44389</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" ref="E19:E25" si="3">D19+6</f>
+        <f t="shared" ref="E19:E26" si="3">D19+6</f>
         <v>44395</v>
       </c>
       <c r="F19" t="s">
@@ -913,7 +913,7 @@
         <v>44402</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
         <v>44409</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,7 +957,7 @@
         <v>44416</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>44423</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1001,7 +1001,7 @@
         <v>44430</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1023,6 +1023,28 @@
         <v>44437</v>
       </c>
       <c r="F25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" ref="D26" si="5">B26+(C26-1)*7-WEEKDAY(B26,2)+1</f>
+        <v>44438</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>44444</v>
+      </c>
+      <c r="F26" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Introduction to Algorithms/Syllabus.xlsx
+++ b/Introduction to Algorithms/Syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/Introduction to Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C14CC-E7F6-AE46-88AD-C990EFEE05B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55137769-B045-8C4B-8966-92CB65B89454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -935,7 +938,7 @@
         <v>44409</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,7 +960,7 @@
         <v>44416</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -979,7 +982,7 @@
         <v>44423</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1001,7 +1004,7 @@
         <v>44430</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1023,7 +1026,7 @@
         <v>44437</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1037,7 +1040,7 @@
         <v>36</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" ref="D26" si="5">B26+(C26-1)*7-WEEKDAY(B26,2)+1</f>
+        <f t="shared" ref="D26:D29" si="5">B26+(C26-1)*7-WEEKDAY(B26,2)+1</f>
         <v>44438</v>
       </c>
       <c r="E26" s="1">
@@ -1045,6 +1048,94 @@
         <v>44444</v>
       </c>
       <c r="F26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C27">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="5"/>
+        <v>44445</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27:E30" si="6">D27+6</f>
+        <v>44451</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C28">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="5"/>
+        <v>44452</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="6"/>
+        <v>44458</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="5"/>
+        <v>44459</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="6"/>
+        <v>44465</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C30">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1">
+        <f>B30+(C30-1)*7-WEEKDAY(B30,2)+1</f>
+        <v>44466</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="6"/>
+        <v>44472</v>
+      </c>
+      <c r="F30" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Introduction to Algorithms/Syllabus.xlsx
+++ b/Introduction to Algorithms/Syllabus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jake/Learning/[Notes]/Introduction to Algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55137769-B045-8C4B-8966-92CB65B89454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4DCE25-B2BE-084B-8B4C-0E5D800FA4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>周数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,9 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Review3</t>
-  </si>
-  <si>
     <t>8.17-8.22</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t>8.1-8.5</t>
-  </si>
-  <si>
-    <t>Review2</t>
   </si>
   <si>
     <t>7.13-7.18</t>
@@ -462,13 +456,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -872,7 +866,7 @@
         <v>44388</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -894,7 +888,7 @@
         <v>44395</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -916,7 +910,7 @@
         <v>44402</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -938,7 +932,7 @@
         <v>44409</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -960,7 +954,7 @@
         <v>44416</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -982,7 +976,7 @@
         <v>44423</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1004,7 +998,7 @@
         <v>44430</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1026,7 +1020,7 @@
         <v>44437</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1066,11 +1060,11 @@
         <v>44445</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" ref="E27:E30" si="6">D27+6</f>
+        <f t="shared" ref="E27:E34" si="6">D27+6</f>
         <v>44451</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1092,7 +1086,7 @@
         <v>44458</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1114,7 +1108,7 @@
         <v>44465</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1136,6 +1130,204 @@
         <v>44472</v>
       </c>
       <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31:D39" si="7">B31+(C31-1)*7-WEEKDAY(B31,2)+1</f>
+        <v>44473</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="6"/>
+        <v>44479</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C32">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="7"/>
+        <v>44480</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="6"/>
+        <v>44486</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C33">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="7"/>
+        <v>44487</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="6"/>
+        <v>44493</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C34">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="7"/>
+        <v>44494</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="6"/>
+        <v>44500</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C35">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="7"/>
+        <v>44501</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ref="E35:E39" si="8">D35+6</f>
+        <v>44507</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C36">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="7"/>
+        <v>44508</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="8"/>
+        <v>44514</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C37">
+        <v>47</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="7"/>
+        <v>44515</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="8"/>
+        <v>44521</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C38">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="7"/>
+        <v>44522</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="8"/>
+        <v>44528</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C39">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="7"/>
+        <v>44529</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="8"/>
+        <v>44535</v>
+      </c>
+      <c r="F39" t="s">
         <v>16</v>
       </c>
     </row>
